--- a/pearson_tables/t2m_netherlands-3-4.xlsx
+++ b/pearson_tables/t2m_netherlands-3-4.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7916172401111546</v>
+        <v>0.778111702146748</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5402699071912141</v>
+        <v>0.5310366611625629</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5066564513629471</v>
+        <v>0.5099897156050792</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7773847304586328</v>
+        <v>0.7628624588331022</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5685811004732614</v>
+        <v>-0.5589050740759482</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6001966090791697</v>
+        <v>0.5988320345383111</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8730439505657817</v>
+        <v>-0.8739627011881791</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4999353433612417</v>
+        <v>0.5053222423535163</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5853302207608466</v>
+        <v>0.5956262603643074</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7445550371020825</v>
+        <v>0.779271802461178</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6380451795536122</v>
+        <v>0.6132461248101666</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5832917356078869</v>
+        <v>-0.6040647386847622</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7844449259152783</v>
+        <v>0.7739875194658538</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5311585531161319</v>
+        <v>-0.5256880957458819</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6262376184590304</v>
+        <v>0.6253656874702692</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6314706721244412</v>
+        <v>-0.6244683248714948</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5604995508250928</v>
+        <v>-0.5802676602775768</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5433550299175746</v>
+        <v>0.5422657080009534</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6782171676882957</v>
+        <v>-0.6910822004340283</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6354023769751928</v>
+        <v>0.6753835575033513</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5071633744768856</v>
+        <v>0.5055548986264494</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.7089413579468408</v>
+        <v>-0.7012350210805105</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4909885855302916</v>
+        <v>0.4327636197874499</v>
       </c>
       <c r="D9" t="n">
-        <v>0.572065287547757</v>
+        <v>0.5863558691626481</v>
       </c>
     </row>
   </sheetData>

--- a/pearson_tables/t2m_netherlands-3-4.xlsx
+++ b/pearson_tables/t2m_netherlands-3-4.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.778111702146748</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5310366611625629</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5099897156050792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7628624588331022</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5589050740759482</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5988320345383111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8739627011881791</v>
+        <v>-0.8788347507641437</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5053222423535163</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5956262603643074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.779271802461178</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6132461248101666</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6040647386847622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7739875194658538</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5256880957458819</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6253656874702692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6244683248714948</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5802676602775768</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5422657080009534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6910822004340283</v>
+        <v>0.7071695230269043</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6753835575033513</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5055548986264494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.7012350210805105</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4327636197874499</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5863558691626481</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
